--- a/mau-file-upload-voucher-code-cua-NCC3.xlsx
+++ b/mau-file-upload-voucher-code-cua-NCC3.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Code</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>4gfd</t>
+  </si>
+  <si>
+    <t>Serial/PIN</t>
   </si>
 </sst>
 </file>
@@ -306,156 +309,187 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -465,9 +499,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -482,33 +514,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -523,9 +547,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -540,9 +562,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -557,17 +577,13 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <top style="thin">
@@ -576,9 +592,7 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
@@ -955,10 +969,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.000000"/>
@@ -976,7 +990,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.500000">
@@ -1001,7 +1015,6 @@
         <v>345345345</v>
       </c>
     </row>
-    <row r="4" ht="16.500000"/>
     <row r="5" spans="1:3" ht="16.500000">
       <c r="A5" s="0" t="s">
         <v>39</v>
@@ -1013,17 +1026,6 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="6" ht="16.500000"/>
-    <row r="7" ht="16.500000"/>
-    <row r="8" ht="16.500000"/>
-    <row r="9" ht="16.500000"/>
-    <row r="10" ht="16.500000"/>
-    <row r="11" ht="16.500000"/>
-    <row r="12" ht="16.500000"/>
-    <row r="13" ht="16.500000"/>
-    <row r="14" ht="16.500000"/>
-    <row r="15" ht="16.500000"/>
-    <row r="16" ht="16.500000"/>
     <row r="17" ht="16.500000"/>
     <row r="18" ht="16.500000"/>
     <row r="19" ht="16.500000"/>
